--- a/artfynd/A 1164-2026 artfynd.xlsx
+++ b/artfynd/A 1164-2026 artfynd.xlsx
@@ -1533,7 +1533,7 @@
         <v>130852452</v>
       </c>
       <c r="B9" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
